--- a/DateBase/orders/Dang Nguyen_2025-4-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-9.xlsx
@@ -690,6 +690,9 @@
       <c r="C31" t="str">
         <v>71_霜雪mini_Snowy_Gerbera L._20stems</v>
       </c>
+      <c r="F31" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -751,7 +754,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0122015121581572522125101581179302696410151530150</v>
+        <v>0122015121581572522125101581179302696410151530151</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-4-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-9.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -691,12 +691,92 @@
         <v>71_霜雪mini_Snowy_Gerbera L._20stems</v>
       </c>
       <c r="F31" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
         <v>1</v>
+      </c>
+      <c r="C32" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>323_木绣球_Green snowball viburnum_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -754,7 +834,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0122015121581572522125101581179302696410151530151</v>
+        <v>01220151215815725221251015811793026964101515301515456644410100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-4-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-9.xlsx
@@ -773,6 +773,9 @@
       <c r="C41" t="str">
         <v>479_绿灵草_lepidium_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -834,7 +837,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01220151215815725221251015811793026964101515301515456644410100</v>
+        <v>01220151215815725221251015811793026964101515301515456644410102</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-4-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-9.xlsx
@@ -774,7 +774,7 @@
         <v>479_绿灵草_lepidium_undefined_1bunch</v>
       </c>
       <c r="F41" t="str">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -837,7 +837,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01220151215815725221251015811793026964101515301515456644410102</v>
+        <v>012201512158157252212510158117930269641015153015154566444101020</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-4-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-9.xlsx
@@ -839,6 +839,9 @@
       <c r="G2" t="str">
         <v>012201512158157252212510158117930269641015153015154566444101020</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
